--- a/data_year/zb/金融业/证券市场基本情况.xlsx
+++ b/data_year/zb/金融业/证券市场基本情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,1748 +568,1056 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.217</v>
+        <v>21.61</v>
       </c>
       <c r="C2" t="n">
-        <v>492.872684199695</v>
+        <v>198</v>
       </c>
       <c r="D2" t="n">
-        <v>2073.48</v>
+        <v>2808.08</v>
       </c>
       <c r="E2" t="n">
-        <v>83</v>
+        <v>10043.38</v>
       </c>
       <c r="F2" t="n">
-        <v>16363.02</v>
+        <v>1522585.2</v>
       </c>
       <c r="G2" t="n">
-        <v>4657</v>
+        <v>19778.3</v>
       </c>
       <c r="H2" t="n">
-        <v>14733.6805</v>
+        <v>70374</v>
       </c>
       <c r="I2" t="n">
-        <v>4157.4883</v>
+        <v>1661.6563</v>
       </c>
       <c r="J2" t="n">
-        <v>1088</v>
+        <v>2063</v>
       </c>
       <c r="K2" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L2" t="n">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="M2" t="n">
-        <v>5461.0672</v>
+        <v>312890.02</v>
       </c>
       <c r="N2" t="n">
-        <v>16082.2856192</v>
+        <v>2959480.02</v>
       </c>
       <c r="O2" t="n">
-        <v>1354.26370679</v>
+        <v>19442.15355115</v>
       </c>
       <c r="P2" t="n">
-        <v>56.03</v>
+        <v>44.69</v>
       </c>
       <c r="Q2" t="n">
-        <v>509.103181723112</v>
+        <v>557</v>
       </c>
       <c r="R2" t="n">
-        <v>635.73</v>
+        <v>1290.86</v>
       </c>
       <c r="S2" t="n">
-        <v>48090.94433</v>
+        <v>265422.59</v>
       </c>
       <c r="T2" t="n">
-        <v>3791.71</v>
+        <v>26984.48149244</v>
       </c>
       <c r="U2" t="n">
-        <v>4758.38211587</v>
+        <v>42151.9766912</v>
       </c>
       <c r="V2" t="n">
-        <v>60826.6499</v>
+        <v>545633.55</v>
       </c>
       <c r="W2" t="n">
-        <v>6123.24</v>
+        <v>13391.04</v>
       </c>
       <c r="X2" t="n">
-        <v>16087.52</v>
+        <v>193110.413</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>704</v>
       </c>
       <c r="Z2" t="n">
-        <v>2465.79</v>
+        <v>8996</v>
       </c>
       <c r="AA2" t="n">
-        <v>562</v>
+        <v>24228.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.71</v>
+        <v>13.4</v>
       </c>
       <c r="C3" t="n">
-        <v>269.332660951919</v>
+        <v>124.8</v>
       </c>
       <c r="D3" t="n">
-        <v>1645.97</v>
+        <v>2199.42</v>
       </c>
       <c r="E3" t="n">
-        <v>147</v>
+        <v>20143</v>
       </c>
       <c r="F3" t="n">
-        <v>41030.69</v>
+        <v>216417</v>
       </c>
       <c r="G3" t="n">
-        <v>4884</v>
+        <v>17100</v>
       </c>
       <c r="H3" t="n">
-        <v>15487.63</v>
+        <v>209510</v>
       </c>
       <c r="I3" t="n">
-        <v>4815.59</v>
+        <v>1253.32</v>
       </c>
       <c r="J3" t="n">
-        <v>1160</v>
+        <v>2342</v>
       </c>
       <c r="K3" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L3" t="n">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="M3" t="n">
-        <v>12046.3472</v>
+        <v>105413.75</v>
       </c>
       <c r="N3" t="n">
-        <v>30144.9826754</v>
+        <v>1375176</v>
       </c>
       <c r="O3" t="n">
-        <v>1813.17</v>
+        <v>22499.85937403</v>
       </c>
       <c r="P3" t="n">
-        <v>39.79</v>
+        <v>23.11</v>
       </c>
       <c r="Q3" t="n">
-        <v>227.888010656812</v>
+        <v>340.49</v>
       </c>
       <c r="R3" t="n">
-        <v>475.94</v>
+        <v>866.65</v>
       </c>
       <c r="S3" t="n">
-        <v>43522.2039</v>
+        <v>214758.1</v>
       </c>
       <c r="T3" t="n">
-        <v>5218.01</v>
+        <v>29745.11375502</v>
       </c>
       <c r="U3" t="n">
-        <v>3152.2876227</v>
+        <v>33956.56769781</v>
       </c>
       <c r="V3" t="n">
-        <v>38305.18</v>
+        <v>421644.59</v>
       </c>
       <c r="W3" t="n">
-        <v>6898.68</v>
+        <v>14050.37</v>
       </c>
       <c r="X3" t="n">
-        <v>14463.1700683457</v>
+        <v>164921.301</v>
       </c>
       <c r="Y3" t="n">
-        <v>51</v>
+        <v>914</v>
       </c>
       <c r="Z3" t="n">
-        <v>2561.88</v>
+        <v>6365.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>804.23</v>
+        <v>26510.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.43</v>
+        <v>12.3</v>
       </c>
       <c r="C4" t="n">
-        <v>214</v>
+        <v>101.59</v>
       </c>
       <c r="D4" t="n">
-        <v>1357.65</v>
+        <v>2269.13</v>
       </c>
       <c r="E4" t="n">
-        <v>325</v>
+        <v>37366</v>
       </c>
       <c r="F4" t="n">
-        <v>106321.69</v>
+        <v>403426</v>
       </c>
       <c r="G4" t="n">
-        <v>5934.3</v>
+        <v>16154.2</v>
       </c>
       <c r="H4" t="n">
-        <v>24419.64</v>
+        <v>393551</v>
       </c>
       <c r="I4" t="n">
-        <v>8708.68</v>
+        <v>914.1799999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>1224</v>
+        <v>2494</v>
       </c>
       <c r="K4" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L4" t="n">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="M4" t="n">
-        <v>13943.3656</v>
+        <v>145052.57</v>
       </c>
       <c r="N4" t="n">
-        <v>39490.2814324</v>
+        <v>1711269</v>
       </c>
       <c r="O4" t="n">
-        <v>2036.90271945</v>
+        <v>24778.22797984</v>
       </c>
       <c r="P4" t="n">
-        <v>36.97</v>
+        <v>22.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.79</v>
+        <v>297.85</v>
       </c>
       <c r="R4" t="n">
-        <v>388.76</v>
+        <v>881.17</v>
       </c>
       <c r="S4" t="n">
-        <v>38329.1286</v>
+        <v>230357.62</v>
       </c>
       <c r="T4" t="n">
-        <v>5875.45</v>
+        <v>31833.61751537</v>
       </c>
       <c r="U4" t="n">
-        <v>3016.1949</v>
+        <v>32860.54590829</v>
       </c>
       <c r="V4" t="n">
-        <v>27990.4551</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6841.84</v>
-      </c>
+        <v>314583.267</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>12484.55</v>
+        <v>181658.26</v>
       </c>
       <c r="Y4" t="n">
-        <v>71</v>
+        <v>1173</v>
       </c>
       <c r="Z4" t="n">
-        <v>1166.58</v>
+        <v>8667</v>
       </c>
       <c r="AA4" t="n">
-        <v>1318.85</v>
+        <v>31708.41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.54</v>
+        <v>10.99</v>
       </c>
       <c r="C5" t="n">
-        <v>250.75</v>
+        <v>123.59</v>
       </c>
       <c r="D5" t="n">
-        <v>1497.04</v>
-      </c>
-      <c r="E5" t="n">
-        <v>358</v>
-      </c>
+        <v>2115.98</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>151368.51</v>
+        <v>678405</v>
       </c>
       <c r="G5" t="n">
-        <v>6280.1</v>
+        <v>20230</v>
       </c>
       <c r="H5" t="n">
-        <v>52999.85</v>
+        <v>661023.01</v>
       </c>
       <c r="I5" t="n">
-        <v>5756.11</v>
+        <v>803.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1287</v>
+        <v>2489</v>
       </c>
       <c r="K5" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L5" t="n">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="M5" t="n">
-        <v>27992.4308</v>
+        <v>206177.33</v>
       </c>
       <c r="N5" t="n">
-        <v>108396.5880968</v>
+        <v>2674762.02</v>
       </c>
       <c r="O5" t="n">
-        <v>2269.92231608</v>
+        <v>29997.12</v>
       </c>
       <c r="P5" t="n">
-        <v>36.19</v>
+        <v>27.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>214.18</v>
+        <v>389.11</v>
       </c>
       <c r="R5" t="n">
-        <v>378.62</v>
+        <v>1057.67</v>
       </c>
       <c r="S5" t="n">
-        <v>42457.716</v>
+        <v>239077.19</v>
       </c>
       <c r="T5" t="n">
-        <v>6428.46</v>
+        <v>33822.04</v>
       </c>
       <c r="U5" t="n">
-        <v>4163.084</v>
+        <v>48373</v>
       </c>
       <c r="V5" t="n">
-        <v>32115.27</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6981.24</v>
-      </c>
+        <v>468729</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>13178.517</v>
+        <v>199579.53</v>
       </c>
       <c r="Y5" t="n">
-        <v>95</v>
+        <v>1552</v>
       </c>
       <c r="Z5" t="n">
-        <v>682.65</v>
+        <v>12562</v>
       </c>
       <c r="AA5" t="n">
-        <v>1614.67</v>
+        <v>31180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.231</v>
+        <v>16.85</v>
       </c>
       <c r="C6" t="n">
-        <v>288.71</v>
+        <v>242.01</v>
       </c>
       <c r="D6" t="n">
-        <v>1266.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>327</v>
-      </c>
+        <v>3234.68</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>127849.02</v>
+        <v>935357</v>
       </c>
       <c r="G6" t="n">
-        <v>6923.9</v>
+        <v>20247</v>
       </c>
       <c r="H6" t="n">
-        <v>44086.61</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2966.46</v>
-      </c>
+        <v>907166</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>1377</v>
+        <v>2613</v>
       </c>
       <c r="K6" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L6" t="n">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="M6" t="n">
-        <v>30569.76</v>
+        <v>250586</v>
       </c>
       <c r="N6" t="n">
-        <v>146935.32</v>
+        <v>2919882</v>
       </c>
       <c r="O6" t="n">
-        <v>2577.18</v>
+        <v>32289.25</v>
       </c>
       <c r="P6" t="n">
-        <v>24.63</v>
+        <v>41.91</v>
       </c>
       <c r="Q6" t="n">
-        <v>288.29</v>
+        <v>471.99</v>
       </c>
       <c r="R6" t="n">
-        <v>315.81</v>
+        <v>1415.19</v>
       </c>
       <c r="S6" t="n">
-        <v>37055.5682</v>
+        <v>372546.96</v>
       </c>
       <c r="T6" t="n">
-        <v>7149.43</v>
+        <v>36795.1</v>
       </c>
       <c r="U6" t="n">
-        <v>5827.7329</v>
+        <v>73383.09</v>
       </c>
       <c r="V6" t="n">
-        <v>42333.9472</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7215.74</v>
-      </c>
+        <v>742385.2632</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>11688.6395</v>
+        <v>315624.31</v>
       </c>
       <c r="Y6" t="n">
-        <v>161</v>
+        <v>1899</v>
       </c>
       <c r="Z6" t="n">
-        <v>479.47</v>
+        <v>47231</v>
       </c>
       <c r="AA6" t="n">
-        <v>3308.79</v>
+        <v>42033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.33</v>
+        <v>17.6</v>
       </c>
       <c r="C7" t="n">
-        <v>274.37</v>
+        <v>489.63</v>
       </c>
       <c r="D7" t="n">
-        <v>1161.057</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2046.5</v>
-      </c>
+        <v>3539.18</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>228456.96</v>
+        <v>1309219</v>
       </c>
       <c r="G7" t="n">
-        <v>7042</v>
+        <v>58226</v>
       </c>
       <c r="H7" t="n">
-        <v>23621.173</v>
+        <v>1275299</v>
       </c>
       <c r="I7" t="n">
-        <v>2780.6309</v>
+        <v>33920</v>
       </c>
       <c r="J7" t="n">
-        <v>1381</v>
+        <v>2827</v>
       </c>
       <c r="K7" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L7" t="n">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="M7" t="n">
-        <v>32287.41</v>
+        <v>357791</v>
       </c>
       <c r="N7" t="n">
-        <v>134463.38</v>
+        <v>5542312</v>
       </c>
       <c r="O7" t="n">
-        <v>2914.77</v>
+        <v>37043.37</v>
       </c>
       <c r="P7" t="n">
-        <v>16.36</v>
+        <v>52.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>316.43</v>
+        <v>826.28</v>
       </c>
       <c r="R7" t="n">
-        <v>278.75</v>
+        <v>2308.91</v>
       </c>
       <c r="S7" t="n">
-        <v>32430.2814</v>
+        <v>531462.7</v>
       </c>
       <c r="T7" t="n">
-        <v>7629.51</v>
+        <v>43024.14</v>
       </c>
       <c r="U7" t="n">
-        <v>6623.732</v>
+        <v>171039.48</v>
       </c>
       <c r="V7" t="n">
-        <v>31664.7762</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7336.07</v>
-      </c>
+        <v>2550541.31</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>10630.5143</v>
+        <v>417880.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>218</v>
+        <v>2723</v>
       </c>
       <c r="Z7" t="n">
-        <v>773.15</v>
+        <v>152685</v>
       </c>
       <c r="AA7" t="n">
-        <v>4714.18</v>
+        <v>76674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.301</v>
+        <v>15.9</v>
       </c>
       <c r="C8" t="n">
-        <v>541.12</v>
+        <v>158.4</v>
       </c>
       <c r="D8" t="n">
-        <v>2675.474</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3938.3</v>
-      </c>
+        <v>3103.64</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>382839.23</v>
+        <v>2387096</v>
       </c>
       <c r="G8" t="n">
-        <v>8883.299999999999</v>
+        <v>89886</v>
       </c>
       <c r="H8" t="n">
-        <v>15487.327</v>
+        <v>2335826</v>
       </c>
       <c r="I8" t="n">
-        <v>1540.7075</v>
+        <v>51270</v>
       </c>
       <c r="J8" t="n">
-        <v>1434</v>
+        <v>3052</v>
       </c>
       <c r="K8" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L8" t="n">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="M8" t="n">
-        <v>44950.8224</v>
+        <v>413782</v>
       </c>
       <c r="N8" t="n">
-        <v>210063.372546</v>
+        <v>1956343</v>
       </c>
       <c r="O8" t="n">
-        <v>3444.5</v>
+        <v>41136.05</v>
       </c>
       <c r="P8" t="n">
-        <v>32.72</v>
+        <v>41.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>609.38</v>
+        <v>541.8</v>
       </c>
       <c r="R8" t="n">
-        <v>550.59</v>
+        <v>1969.11</v>
       </c>
       <c r="S8" t="n">
-        <v>89403.89</v>
+        <v>507685.88</v>
       </c>
       <c r="T8" t="n">
-        <v>12683.99</v>
+        <v>48750.29</v>
       </c>
       <c r="U8" t="n">
-        <v>16145.23</v>
+        <v>95525</v>
       </c>
       <c r="V8" t="n">
-        <v>90468.89</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7854</v>
-      </c>
+        <v>1277680</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>25003.64</v>
+        <v>393401.67</v>
       </c>
       <c r="Y8" t="n">
-        <v>307</v>
+        <v>3873</v>
       </c>
       <c r="Z8" t="n">
-        <v>2002.65</v>
+        <v>111444</v>
       </c>
       <c r="AA8" t="n">
-        <v>6220.67</v>
+        <v>88428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.24</v>
+        <v>16.3</v>
       </c>
       <c r="C9" t="n">
-        <v>927.1900000000001</v>
+        <v>180.5</v>
       </c>
       <c r="D9" t="n">
-        <v>5261.56</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5058.5</v>
-      </c>
+        <v>3307.17</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>628787.97</v>
+        <v>2687635.66</v>
       </c>
       <c r="G9" t="n">
-        <v>23139.1</v>
+        <v>82243</v>
       </c>
       <c r="H9" t="n">
-        <v>18345.08</v>
+        <v>2632193.87</v>
       </c>
       <c r="I9" t="n">
-        <v>1267.28</v>
+        <v>55441.79</v>
       </c>
       <c r="J9" t="n">
-        <v>1550</v>
+        <v>3485</v>
       </c>
       <c r="K9" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L9" t="n">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="M9" t="n">
-        <v>72846.08</v>
+        <v>307106</v>
       </c>
       <c r="N9" t="n">
-        <v>409740.77</v>
+        <v>1878951</v>
       </c>
       <c r="O9" t="n">
-        <v>4933.6429</v>
+        <v>45044.871</v>
       </c>
       <c r="P9" t="n">
-        <v>69.73999999999999</v>
+        <v>36.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>987.42</v>
+        <v>412.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1447.02</v>
+        <v>1899.34</v>
       </c>
       <c r="S9" t="n">
-        <v>327141</v>
+        <v>567086.076</v>
       </c>
       <c r="T9" t="n">
-        <v>17000.4501</v>
+        <v>53746.674</v>
       </c>
       <c r="U9" t="n">
-        <v>36403.748714</v>
+        <v>87780.83872764</v>
       </c>
       <c r="V9" t="n">
-        <v>460556.2335</v>
-      </c>
-      <c r="W9" t="n">
-        <v>13886.18</v>
-      </c>
+        <v>1124625.11139463</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>93064</v>
+        <v>449298.152</v>
       </c>
       <c r="Y9" t="n">
-        <v>346</v>
+        <v>4848</v>
       </c>
       <c r="Z9" t="n">
-        <v>8620.09</v>
+        <v>98052</v>
       </c>
       <c r="AA9" t="n">
-        <v>22339.8</v>
+        <v>110182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.86</v>
+        <v>12.49</v>
       </c>
       <c r="C10" t="n">
-        <v>392.52</v>
+        <v>150.91</v>
       </c>
       <c r="D10" t="n">
-        <v>1820.81</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8435.4</v>
-      </c>
+        <v>2493.9</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>956855.15</v>
+        <v>2405453.7</v>
       </c>
       <c r="G10" t="n">
-        <v>8558.200000000001</v>
+        <v>77063</v>
       </c>
       <c r="H10" t="n">
-        <v>24268.66</v>
+        <v>2341631.76</v>
       </c>
       <c r="I10" t="n">
-        <v>2122.51</v>
+        <v>63821.94</v>
       </c>
       <c r="J10" t="n">
-        <v>1625</v>
+        <v>3584</v>
       </c>
       <c r="K10" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L10" t="n">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="M10" t="n">
-        <v>136395.97</v>
+        <v>301070</v>
       </c>
       <c r="N10" t="n">
-        <v>719173.33</v>
+        <v>2108057</v>
       </c>
       <c r="O10" t="n">
-        <v>6964.97</v>
+        <v>49047.57</v>
       </c>
       <c r="P10" t="n">
-        <v>16.72</v>
+        <v>20</v>
       </c>
       <c r="Q10" t="n">
-        <v>469.11</v>
+        <v>356.92</v>
       </c>
       <c r="R10" t="n">
-        <v>553.3</v>
+        <v>1267.87</v>
       </c>
       <c r="S10" t="n">
-        <v>121366.43</v>
+        <v>434924.03</v>
       </c>
       <c r="T10" t="n">
-        <v>18900.12</v>
+        <v>57581.03</v>
       </c>
       <c r="U10" t="n">
-        <v>24131.39</v>
+        <v>82037.25</v>
       </c>
       <c r="V10" t="n">
-        <v>267112.66</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10449.69</v>
-      </c>
+        <v>901739.4</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>45213.9</v>
+        <v>353794.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>439</v>
+        <v>5580</v>
       </c>
       <c r="Z10" t="n">
-        <v>5831.06</v>
+        <v>102705</v>
       </c>
       <c r="AA10" t="n">
-        <v>25741.79</v>
+        <v>128961.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.73</v>
+        <v>15.6</v>
       </c>
       <c r="C11" t="n">
-        <v>499.41</v>
+        <v>193.9</v>
       </c>
       <c r="D11" t="n">
-        <v>3277.14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>15864.4</v>
-      </c>
+        <v>3050.12</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1180369.13</v>
+        <v>2473724</v>
       </c>
       <c r="G11" t="n">
-        <v>17927.24</v>
+        <v>83715</v>
       </c>
       <c r="H11" t="n">
-        <v>35929.25</v>
+        <v>2390194</v>
       </c>
       <c r="I11" t="n">
-        <v>2085.71</v>
+        <v>83530.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1718</v>
+        <v>3777</v>
       </c>
       <c r="K11" t="n">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L11" t="n">
-        <v>159</v>
+        <v>294</v>
       </c>
       <c r="M11" t="n">
-        <v>215751.76</v>
+        <v>392157</v>
       </c>
       <c r="N11" t="n">
-        <v>1305142.92</v>
+        <v>2905856</v>
       </c>
       <c r="O11" t="n">
-        <v>14200.19</v>
+        <v>52487.62</v>
       </c>
       <c r="P11" t="n">
-        <v>46.01</v>
+        <v>35.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>793.27</v>
+        <v>454.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1201.34</v>
+        <v>1722.95</v>
       </c>
       <c r="S11" t="n">
-        <v>243939.12</v>
+        <v>592935</v>
       </c>
       <c r="T11" t="n">
-        <v>20606.26</v>
+        <v>61720</v>
       </c>
       <c r="U11" t="n">
-        <v>51106.99</v>
+        <v>126624</v>
       </c>
       <c r="V11" t="n">
-        <v>535987</v>
-      </c>
-      <c r="W11" t="n">
-        <v>12037.69</v>
-      </c>
+        <v>1274158.8</v>
+      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>151258.65</v>
+        <v>483461</v>
       </c>
       <c r="Y11" t="n">
-        <v>557</v>
+        <v>6111</v>
       </c>
       <c r="Z11" t="n">
-        <v>10249.58</v>
+        <v>91679.38</v>
       </c>
       <c r="AA11" t="n">
-        <v>26767.05</v>
+        <v>136937.42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.61</v>
+        <v>16.1</v>
       </c>
       <c r="C12" t="n">
-        <v>198</v>
+        <v>258.8</v>
       </c>
       <c r="D12" t="n">
-        <v>2808.08</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10043.38</v>
-      </c>
+        <v>3473.07</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1522585.2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>19778.3</v>
-      </c>
+        <v>3075974.26</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>70374</v>
+        <v>2874188.44</v>
       </c>
       <c r="I12" t="n">
-        <v>1661.6563</v>
+        <v>201785.82</v>
       </c>
       <c r="J12" t="n">
-        <v>2063</v>
+        <v>4154</v>
       </c>
       <c r="K12" t="n">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L12" t="n">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="M12" t="n">
-        <v>312890.02</v>
+        <v>602735</v>
       </c>
       <c r="N12" t="n">
-        <v>2959480.02</v>
+        <v>4373005.25165628</v>
       </c>
       <c r="O12" t="n">
-        <v>19442.15355115</v>
+        <v>56353.5</v>
       </c>
       <c r="P12" t="n">
-        <v>44.69</v>
+        <v>33.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>557</v>
+        <v>555.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1290.86</v>
+        <v>2329.37</v>
       </c>
       <c r="S12" t="n">
-        <v>265422.59</v>
+        <v>797238.17</v>
       </c>
       <c r="T12" t="n">
-        <v>26984.48149244</v>
+        <v>65479.19</v>
       </c>
       <c r="U12" t="n">
-        <v>42151.9766912</v>
+        <v>167451.85967352</v>
       </c>
       <c r="V12" t="n">
-        <v>545633.55</v>
-      </c>
-      <c r="W12" t="n">
-        <v>13391.04</v>
-      </c>
+        <v>2068252.51579344</v>
+      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>193110.413</v>
+        <v>643605.29</v>
       </c>
       <c r="Y12" t="n">
-        <v>704</v>
+        <v>7258</v>
       </c>
       <c r="Z12" t="n">
-        <v>8996</v>
+        <v>136238.629876098</v>
       </c>
       <c r="AA12" t="n">
-        <v>24228.35</v>
+        <v>169974.29225702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.4</v>
+        <v>20.85</v>
       </c>
       <c r="C13" t="n">
-        <v>124.8</v>
+        <v>280.71</v>
       </c>
       <c r="D13" t="n">
-        <v>2199.42</v>
-      </c>
-      <c r="E13" t="n">
-        <v>20143</v>
-      </c>
+        <v>3639.78</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>216417</v>
-      </c>
-      <c r="G13" t="n">
-        <v>17100</v>
-      </c>
+        <v>3791201.79</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>209510</v>
+        <v>3501926.44</v>
       </c>
       <c r="I13" t="n">
-        <v>1253.32</v>
+        <v>289275.35</v>
       </c>
       <c r="J13" t="n">
-        <v>2342</v>
+        <v>4615</v>
       </c>
       <c r="K13" t="n">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="L13" t="n">
-        <v>171</v>
+        <v>323</v>
       </c>
       <c r="M13" t="n">
-        <v>105413.75</v>
+        <v>726880.86</v>
       </c>
       <c r="N13" t="n">
-        <v>1375176</v>
+        <v>5806874.44</v>
       </c>
       <c r="O13" t="n">
-        <v>22499.85937403</v>
+        <v>60755.13</v>
       </c>
       <c r="P13" t="n">
-        <v>23.11</v>
+        <v>33.03</v>
       </c>
       <c r="Q13" t="n">
-        <v>340.49</v>
+        <v>506.08</v>
       </c>
       <c r="R13" t="n">
-        <v>866.65</v>
+        <v>2530.14</v>
       </c>
       <c r="S13" t="n">
-        <v>214758.1</v>
+        <v>916088.1800000001</v>
       </c>
       <c r="T13" t="n">
-        <v>29745.11375502</v>
+        <v>70694.39</v>
       </c>
       <c r="U13" t="n">
-        <v>33956.56769781</v>
+        <v>187425.9</v>
       </c>
       <c r="V13" t="n">
-        <v>421644.59</v>
-      </c>
-      <c r="W13" t="n">
-        <v>14050.37</v>
-      </c>
+        <v>2579734.1</v>
+      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>164921.301</v>
+        <v>751556.13</v>
       </c>
       <c r="Y13" t="n">
-        <v>914</v>
+        <v>9152</v>
       </c>
       <c r="Z13" t="n">
-        <v>6365.8</v>
+        <v>183234.05</v>
       </c>
       <c r="AA13" t="n">
-        <v>26510.37</v>
+        <v>218244.61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.3</v>
+        <v>14.5</v>
       </c>
       <c r="C14" t="n">
-        <v>101.59</v>
+        <v>204</v>
       </c>
       <c r="D14" t="n">
-        <v>2269.13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>37366</v>
-      </c>
+        <v>3089.26</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>403426</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16154.2</v>
-      </c>
+        <v>4416738</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>393551</v>
+        <v>4035602</v>
       </c>
       <c r="I14" t="n">
-        <v>914.1799999999999</v>
+        <v>381136</v>
       </c>
       <c r="J14" t="n">
-        <v>2494</v>
+        <v>4917</v>
       </c>
       <c r="K14" t="n">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="L14" t="n">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="M14" t="n">
-        <v>145052.57</v>
+        <v>634242</v>
       </c>
       <c r="N14" t="n">
-        <v>1711269</v>
+        <v>5343025</v>
       </c>
       <c r="O14" t="n">
-        <v>24778.22797984</v>
+        <v>64245</v>
       </c>
       <c r="P14" t="n">
-        <v>22.01</v>
+        <v>23.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>297.85</v>
+        <v>470.3</v>
       </c>
       <c r="R14" t="n">
-        <v>881.17</v>
+        <v>1975.61</v>
       </c>
       <c r="S14" t="n">
-        <v>230357.62</v>
+        <v>788006</v>
       </c>
       <c r="T14" t="n">
-        <v>31833.61751537</v>
+        <v>73312</v>
       </c>
       <c r="U14" t="n">
-        <v>32860.54590829</v>
+        <v>185725</v>
       </c>
       <c r="V14" t="n">
-        <v>314583.267</v>
+        <v>2245095</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>181658.26</v>
+        <v>663429</v>
       </c>
       <c r="Y14" t="n">
-        <v>1173</v>
+        <v>10375</v>
       </c>
       <c r="Z14" t="n">
-        <v>8667</v>
+        <v>231161</v>
       </c>
       <c r="AA14" t="n">
-        <v>31708.41</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="C15" t="n">
-        <v>123.59</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2115.98</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>678405</v>
-      </c>
-      <c r="G15" t="n">
-        <v>20230</v>
-      </c>
-      <c r="H15" t="n">
-        <v>661023.01</v>
-      </c>
-      <c r="I15" t="n">
-        <v>803.75</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2489</v>
-      </c>
-      <c r="K15" t="n">
-        <v>106</v>
-      </c>
-      <c r="L15" t="n">
-        <v>185</v>
-      </c>
-      <c r="M15" t="n">
-        <v>206177.33</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2674762.02</v>
-      </c>
-      <c r="O15" t="n">
-        <v>29997.12</v>
-      </c>
-      <c r="P15" t="n">
-        <v>27.76</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>389.11</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1057.67</v>
-      </c>
-      <c r="S15" t="n">
-        <v>239077.19</v>
-      </c>
-      <c r="T15" t="n">
-        <v>33822.04</v>
-      </c>
-      <c r="U15" t="n">
-        <v>48373</v>
-      </c>
-      <c r="V15" t="n">
-        <v>468729</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>199579.53</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1552</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>12562</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>31180</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="C16" t="n">
-        <v>242.01</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3234.68</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>935357</v>
-      </c>
-      <c r="G16" t="n">
-        <v>20247</v>
-      </c>
-      <c r="H16" t="n">
-        <v>907166</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>2613</v>
-      </c>
-      <c r="K16" t="n">
-        <v>104</v>
-      </c>
-      <c r="L16" t="n">
-        <v>202</v>
-      </c>
-      <c r="M16" t="n">
-        <v>250586</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2919882</v>
-      </c>
-      <c r="O16" t="n">
-        <v>32289.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>471.99</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1415.19</v>
-      </c>
-      <c r="S16" t="n">
-        <v>372546.96</v>
-      </c>
-      <c r="T16" t="n">
-        <v>36795.1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>73383.09</v>
-      </c>
-      <c r="V16" t="n">
-        <v>742385.2632</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
-        <v>315624.31</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1899</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>47231</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>42033</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>489.63</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3539.18</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>1309219</v>
-      </c>
-      <c r="G17" t="n">
-        <v>58226</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1275299</v>
-      </c>
-      <c r="I17" t="n">
-        <v>33920</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2827</v>
-      </c>
-      <c r="K17" t="n">
-        <v>101</v>
-      </c>
-      <c r="L17" t="n">
-        <v>229</v>
-      </c>
-      <c r="M17" t="n">
-        <v>357791</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5542312</v>
-      </c>
-      <c r="O17" t="n">
-        <v>37043.37</v>
-      </c>
-      <c r="P17" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>826.28</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2308.91</v>
-      </c>
-      <c r="S17" t="n">
-        <v>531462.7</v>
-      </c>
-      <c r="T17" t="n">
-        <v>43024.14</v>
-      </c>
-      <c r="U17" t="n">
-        <v>171039.48</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2550541.31</v>
-      </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="n">
-        <v>417880.75</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>2723</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>152685</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>76674</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>158.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3103.64</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>2387096</v>
-      </c>
-      <c r="G18" t="n">
-        <v>89886</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2335826</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51270</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3052</v>
-      </c>
-      <c r="K18" t="n">
-        <v>100</v>
-      </c>
-      <c r="L18" t="n">
-        <v>241</v>
-      </c>
-      <c r="M18" t="n">
-        <v>413782</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1956343</v>
-      </c>
-      <c r="O18" t="n">
-        <v>41136.05</v>
-      </c>
-      <c r="P18" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>541.8</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1969.11</v>
-      </c>
-      <c r="S18" t="n">
-        <v>507685.88</v>
-      </c>
-      <c r="T18" t="n">
-        <v>48750.29</v>
-      </c>
-      <c r="U18" t="n">
-        <v>95525</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1277680</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="n">
-        <v>393401.67</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>3873</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>111444</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>88428</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>180.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3307.17</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>2687635.66</v>
-      </c>
-      <c r="G19" t="n">
-        <v>82243</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2632193.87</v>
-      </c>
-      <c r="I19" t="n">
-        <v>55441.79</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3485</v>
-      </c>
-      <c r="K19" t="n">
-        <v>100</v>
-      </c>
-      <c r="L19" t="n">
-        <v>252</v>
-      </c>
-      <c r="M19" t="n">
-        <v>307106</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1878951</v>
-      </c>
-      <c r="O19" t="n">
-        <v>45044.871</v>
-      </c>
-      <c r="P19" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>412.9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1899.34</v>
-      </c>
-      <c r="S19" t="n">
-        <v>567086.076</v>
-      </c>
-      <c r="T19" t="n">
-        <v>53746.674</v>
-      </c>
-      <c r="U19" t="n">
-        <v>87780.83872764</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1124625.11139463</v>
-      </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="n">
-        <v>449298.152</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>4848</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>98052</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>110182</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>150.91</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2493.9</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>2405453.7</v>
-      </c>
-      <c r="G20" t="n">
-        <v>77063</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2341631.76</v>
-      </c>
-      <c r="I20" t="n">
-        <v>63821.94</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3584</v>
-      </c>
-      <c r="K20" t="n">
-        <v>99</v>
-      </c>
-      <c r="L20" t="n">
-        <v>267</v>
-      </c>
-      <c r="M20" t="n">
-        <v>301070</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2108057</v>
-      </c>
-      <c r="O20" t="n">
-        <v>49047.57</v>
-      </c>
-      <c r="P20" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>356.92</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1267.87</v>
-      </c>
-      <c r="S20" t="n">
-        <v>434924.03</v>
-      </c>
-      <c r="T20" t="n">
-        <v>57581.03</v>
-      </c>
-      <c r="U20" t="n">
-        <v>82037.25</v>
-      </c>
-      <c r="V20" t="n">
-        <v>901739.4</v>
-      </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="n">
-        <v>353794.2</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>5580</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>102705</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>128961.33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="C21" t="n">
-        <v>157.59</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3050.12</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>2524154.2160512</v>
-      </c>
-      <c r="G21" t="n">
-        <v>83715</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2440624.0160512</v>
-      </c>
-      <c r="I21" t="n">
-        <v>83530.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3777</v>
-      </c>
-      <c r="K21" t="n">
-        <v>97</v>
-      </c>
-      <c r="L21" t="n">
-        <v>284</v>
-      </c>
-      <c r="M21" t="n">
-        <v>392135.56</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2905739.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>52487.62</v>
-      </c>
-      <c r="P21" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>456.16</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1722.95</v>
-      </c>
-      <c r="S21" t="n">
-        <v>592934.5699999999</v>
-      </c>
-      <c r="T21" t="n">
-        <v>61719.92</v>
-      </c>
-      <c r="U21" t="n">
-        <v>126624.29</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1274158.8</v>
-      </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="n">
-        <v>483461.26</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>6111</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>91679.38</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>136937.42</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="C22" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3473.07</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>3075974.26</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>2874188.44</v>
-      </c>
-      <c r="I22" t="n">
-        <v>201785.82</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4154</v>
-      </c>
-      <c r="K22" t="n">
-        <v>93</v>
-      </c>
-      <c r="L22" t="n">
-        <v>291</v>
-      </c>
-      <c r="M22" t="n">
-        <v>602691.0106</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4373005.25165628</v>
-      </c>
-      <c r="O22" t="n">
-        <v>56353.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>34.44</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>555.8847</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2329.37</v>
-      </c>
-      <c r="S22" t="n">
-        <v>797238.17</v>
-      </c>
-      <c r="T22" t="n">
-        <v>65479.19</v>
-      </c>
-      <c r="U22" t="n">
-        <v>167451.85967352</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2068252.51579344</v>
-      </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="n">
-        <v>643605.29</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>7237</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>136238.629876098</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>169974.29225702</v>
+        <v>256438</v>
       </c>
     </row>
   </sheetData>
